--- a/data/trans_orig/Q20A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q20A-Clase-trans_orig.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,12</t>
+          <t>0,05; 0,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,16</t>
+          <t>0,08; 0,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,13</t>
+          <t>0,06; 0,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,13</t>
+          <t>0,07; 0,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,12</t>
+          <t>0,06; 0,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,09</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,13</t>
+          <t>0,06; 0,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,35</t>
+          <t>0,07; 0,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1014,37 +1014,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>0,06; 0,21</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,22</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,16</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,16</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,22</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>0,07; 0,21</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,22</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,15</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,17</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,24</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,22</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,08</t>
+          <t>0,04; 0,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,19</t>
+          <t>0,07; 0,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,21</t>
+          <t>0,04; 0,2</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,09</t>
+          <t>0,05; 0,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,1</t>
+          <t>0,04; 0,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,13</t>
+          <t>0,09; 0,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,13</t>
+          <t>0,06; 0,14</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,14</t>
+          <t>0,04; 0,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,16</t>
+          <t>0,06; 0,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,22</t>
+          <t>0,11; 0,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,09</t>
+          <t>0,05; 0,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,14</t>
+          <t>0,06; 0,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,1</t>
+          <t>0,02; 0,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,05</t>
+          <t>0,0; 0,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,08</t>
+          <t>0,04; 0,07</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,13</t>
+          <t>0,07; 0,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,12</t>
+          <t>0,08; 0,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_orig/Q20A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q20A-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
